--- a/用例数据/深港/证券组合费/测试结果.xlsx
+++ b/用例数据/深港/证券组合费/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深港\证券组合费\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="unprocessedreckoningresult" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="219">
   <si>
     <t>ACCTID</t>
   </si>
@@ -667,19 +672,21 @@
   </si>
   <si>
     <t>DELIVERYFLAG</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +698,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -698,6 +706,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -705,141 +714,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,182 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1047,315 +760,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1613,127 +1049,127 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="12.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="16.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="7.88888888888889" customWidth="1"/>
-    <col min="18" max="18" width="11.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="7.11111111111111" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="27.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="13.2222222222222" customWidth="1"/>
-    <col min="24" max="24" width="16.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="15.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="14.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="12.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="13.1111111111111" customWidth="1"/>
-    <col min="30" max="30" width="17.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="15.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="20.6666666666667" customWidth="1"/>
-    <col min="33" max="33" width="18.5555555555556" customWidth="1"/>
-    <col min="34" max="34" width="27.4444444444444" customWidth="1"/>
-    <col min="35" max="35" width="25.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="13.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="14.1111111111111" customWidth="1"/>
-    <col min="38" max="38" width="19.1111111111111" customWidth="1"/>
-    <col min="39" max="39" width="12.5555555555556" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="17.109375" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" customWidth="1"/>
+    <col min="33" max="33" width="18.5546875" customWidth="1"/>
+    <col min="34" max="34" width="27.44140625" customWidth="1"/>
+    <col min="35" max="35" width="25.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" customWidth="1"/>
+    <col min="38" max="38" width="19.109375" customWidth="1"/>
+    <col min="39" max="39" width="12.5546875" customWidth="1"/>
     <col min="40" max="40" width="17" customWidth="1"/>
-    <col min="41" max="41" width="8.33333333333333" customWidth="1"/>
-    <col min="42" max="42" width="22.2222222222222" customWidth="1"/>
-    <col min="43" max="43" width="23.1111111111111" customWidth="1"/>
-    <col min="44" max="44" width="13.4444444444444" customWidth="1"/>
-    <col min="45" max="45" width="10.6666666666667" customWidth="1"/>
+    <col min="41" max="41" width="8.33203125" customWidth="1"/>
+    <col min="42" max="42" width="22.21875" customWidth="1"/>
+    <col min="43" max="43" width="23.109375" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" customWidth="1"/>
+    <col min="45" max="45" width="10.6640625" customWidth="1"/>
     <col min="46" max="46" width="19" customWidth="1"/>
-    <col min="47" max="47" width="16.8888888888889" customWidth="1"/>
-    <col min="48" max="48" width="20.6666666666667" customWidth="1"/>
-    <col min="49" max="49" width="11.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="20.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="17.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="12.7777777777778" customWidth="1"/>
+    <col min="47" max="47" width="16.88671875" customWidth="1"/>
+    <col min="48" max="48" width="20.6640625" customWidth="1"/>
+    <col min="49" max="49" width="11.77734375" customWidth="1"/>
+    <col min="50" max="50" width="20.5546875" customWidth="1"/>
+    <col min="51" max="51" width="17.44140625" customWidth="1"/>
+    <col min="52" max="52" width="12.77734375" customWidth="1"/>
     <col min="53" max="53" width="15" customWidth="1"/>
-    <col min="54" max="54" width="13.5555555555556" customWidth="1"/>
-    <col min="55" max="55" width="20.7777777777778" customWidth="1"/>
-    <col min="56" max="56" width="24.2222222222222" customWidth="1"/>
-    <col min="57" max="57" width="18.2222222222222" customWidth="1"/>
-    <col min="58" max="58" width="16.6666666666667" customWidth="1"/>
-    <col min="59" max="59" width="13.6666666666667" customWidth="1"/>
-    <col min="60" max="60" width="17.1111111111111" customWidth="1"/>
-    <col min="61" max="61" width="22.2222222222222" customWidth="1"/>
-    <col min="62" max="62" width="12.2222222222222" customWidth="1"/>
-    <col min="63" max="63" width="18.2222222222222" customWidth="1"/>
-    <col min="64" max="64" width="7.77777777777778" customWidth="1"/>
+    <col min="54" max="54" width="13.5546875" customWidth="1"/>
+    <col min="55" max="55" width="20.77734375" customWidth="1"/>
+    <col min="56" max="56" width="24.21875" customWidth="1"/>
+    <col min="57" max="57" width="18.21875" customWidth="1"/>
+    <col min="58" max="58" width="16.6640625" customWidth="1"/>
+    <col min="59" max="59" width="13.6640625" customWidth="1"/>
+    <col min="60" max="60" width="17.109375" customWidth="1"/>
+    <col min="61" max="61" width="22.21875" customWidth="1"/>
+    <col min="62" max="62" width="12.21875" customWidth="1"/>
+    <col min="63" max="63" width="18.21875" customWidth="1"/>
+    <col min="64" max="64" width="7.77734375" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="67" width="19.1111111111111" customWidth="1"/>
-    <col min="68" max="68" width="18.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="13.4444444444444" customWidth="1"/>
-    <col min="70" max="70" width="22.1111111111111" customWidth="1"/>
-    <col min="71" max="71" width="16.4444444444444" customWidth="1"/>
-    <col min="72" max="72" width="21.8888888888889" customWidth="1"/>
-    <col min="73" max="73" width="11.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="14.5555555555556" customWidth="1"/>
-    <col min="75" max="75" width="18.2222222222222" customWidth="1"/>
-    <col min="76" max="76" width="13.2222222222222" customWidth="1"/>
-    <col min="77" max="77" width="17.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="20.1111111111111" customWidth="1"/>
-    <col min="79" max="79" width="17.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="16.8888888888889" customWidth="1"/>
-    <col min="81" max="81" width="21.7777777777778" customWidth="1"/>
-    <col min="82" max="82" width="19.7777777777778" customWidth="1"/>
-    <col min="83" max="83" width="13.5555555555556" customWidth="1"/>
-    <col min="84" max="84" width="23.5555555555556" customWidth="1"/>
+    <col min="66" max="67" width="19.109375" customWidth="1"/>
+    <col min="68" max="68" width="18.44140625" customWidth="1"/>
+    <col min="69" max="69" width="13.44140625" customWidth="1"/>
+    <col min="70" max="70" width="22.109375" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" customWidth="1"/>
+    <col min="72" max="72" width="21.88671875" customWidth="1"/>
+    <col min="73" max="73" width="11.21875" customWidth="1"/>
+    <col min="74" max="74" width="14.5546875" customWidth="1"/>
+    <col min="75" max="75" width="18.21875" customWidth="1"/>
+    <col min="76" max="76" width="13.21875" customWidth="1"/>
+    <col min="77" max="77" width="17.21875" customWidth="1"/>
+    <col min="78" max="78" width="20.109375" customWidth="1"/>
+    <col min="79" max="79" width="17.6640625" customWidth="1"/>
+    <col min="80" max="80" width="16.88671875" customWidth="1"/>
+    <col min="81" max="81" width="21.77734375" customWidth="1"/>
+    <col min="82" max="82" width="19.77734375" customWidth="1"/>
+    <col min="83" max="83" width="13.5546875" customWidth="1"/>
+    <col min="84" max="84" width="23.5546875" customWidth="1"/>
     <col min="85" max="85" width="19" customWidth="1"/>
-    <col min="86" max="86" width="23.6666666666667" customWidth="1"/>
-    <col min="87" max="87" width="25.7777777777778" customWidth="1"/>
-    <col min="88" max="88" width="17.8888888888889" customWidth="1"/>
-    <col min="89" max="89" width="19.8888888888889" customWidth="1"/>
-    <col min="90" max="90" width="23.5555555555556" customWidth="1"/>
-    <col min="91" max="91" width="22.6666666666667" customWidth="1"/>
+    <col min="86" max="86" width="23.6640625" customWidth="1"/>
+    <col min="87" max="87" width="25.77734375" customWidth="1"/>
+    <col min="88" max="88" width="17.88671875" customWidth="1"/>
+    <col min="89" max="89" width="19.88671875" customWidth="1"/>
+    <col min="90" max="90" width="23.5546875" customWidth="1"/>
+    <col min="91" max="91" width="22.6640625" customWidth="1"/>
     <col min="92" max="92" width="22" customWidth="1"/>
-    <col min="93" max="93" width="21.2222222222222" customWidth="1"/>
-    <col min="94" max="94" width="19.2222222222222" customWidth="1"/>
-    <col min="95" max="95" width="22.4444444444444" customWidth="1"/>
-    <col min="96" max="96" width="19.7777777777778" customWidth="1"/>
-    <col min="97" max="97" width="10.2222222222222" customWidth="1"/>
-    <col min="98" max="98" width="16.8888888888889" customWidth="1"/>
-    <col min="99" max="99" width="15.1111111111111" customWidth="1"/>
-    <col min="100" max="100" width="17.1111111111111" customWidth="1"/>
-    <col min="101" max="101" width="11.8888888888889" customWidth="1"/>
-    <col min="102" max="102" width="13.6666666666667" customWidth="1"/>
+    <col min="93" max="93" width="21.21875" customWidth="1"/>
+    <col min="94" max="94" width="19.21875" customWidth="1"/>
+    <col min="95" max="95" width="22.44140625" customWidth="1"/>
+    <col min="96" max="96" width="19.77734375" customWidth="1"/>
+    <col min="97" max="97" width="10.21875" customWidth="1"/>
+    <col min="98" max="98" width="16.88671875" customWidth="1"/>
+    <col min="99" max="99" width="15.109375" customWidth="1"/>
+    <col min="100" max="100" width="17.109375" customWidth="1"/>
+    <col min="101" max="101" width="11.88671875" customWidth="1"/>
+    <col min="102" max="102" width="13.6640625" customWidth="1"/>
     <col min="103" max="103" width="19" customWidth="1"/>
-    <col min="104" max="104" width="22.8888888888889" customWidth="1"/>
+    <col min="104" max="104" width="22.88671875" customWidth="1"/>
     <col min="105" max="105" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:105">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +1486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:105">
+    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -2195,8 +1631,8 @@
       <c r="BE2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF2" s="1" t="s">
-        <v>109</v>
+      <c r="BF2" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>119</v>
@@ -2301,7 +1737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:105">
+    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -2446,8 +1882,8 @@
       <c r="BE3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF3" s="1" t="s">
-        <v>109</v>
+      <c r="BF3" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>119</v>
@@ -2552,7 +1988,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:105">
+    <row r="4" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -2697,8 +2133,8 @@
       <c r="BE4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>109</v>
+      <c r="BF4" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>119</v>
@@ -2803,7 +2239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:105">
+    <row r="5" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -2948,8 +2384,8 @@
       <c r="BE5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF5" s="1" t="s">
-        <v>109</v>
+      <c r="BF5" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>119</v>
@@ -3054,7 +2490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:105">
+    <row r="6" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -3199,8 +2635,8 @@
       <c r="BE6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>109</v>
+      <c r="BF6" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>119</v>
@@ -3305,7 +2741,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:105">
+    <row r="7" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -3450,8 +2886,8 @@
       <c r="BE7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>109</v>
+      <c r="BF7" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>119</v>
@@ -3556,7 +2992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:105">
+    <row r="8" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -3701,8 +3137,8 @@
       <c r="BE8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF8" s="1" t="s">
-        <v>109</v>
+      <c r="BF8" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>119</v>
@@ -3807,7 +3243,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:105">
+    <row r="9" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -3952,8 +3388,8 @@
       <c r="BE9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF9" s="1" t="s">
-        <v>109</v>
+      <c r="BF9" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>119</v>
@@ -4058,7 +3494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:105">
+    <row r="10" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -4203,8 +3639,8 @@
       <c r="BE10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF10" s="1" t="s">
-        <v>109</v>
+      <c r="BF10" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>119</v>
@@ -4309,7 +3745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:105">
+    <row r="11" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -4454,8 +3890,8 @@
       <c r="BE11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF11" s="1" t="s">
-        <v>109</v>
+      <c r="BF11" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>119</v>
@@ -4560,7 +3996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:105">
+    <row r="12" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -4705,8 +4141,8 @@
       <c r="BE12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF12" s="1" t="s">
-        <v>109</v>
+      <c r="BF12" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>119</v>
@@ -4811,7 +4247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:105">
+    <row r="13" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -4956,8 +4392,8 @@
       <c r="BE13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF13" s="1" t="s">
-        <v>109</v>
+      <c r="BF13" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>119</v>
@@ -5062,210 +4498,209 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1"/>
-    <row r="18" s="2" customFormat="1"/>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1"/>
-    <row r="23" s="2" customFormat="1"/>
-    <row r="24" s="2" customFormat="1"/>
-    <row r="25" s="2" customFormat="1"/>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" s="2" customFormat="1"/>
-    <row r="28" s="2" customFormat="1"/>
-    <row r="29" s="2" customFormat="1"/>
-    <row r="30" s="2" customFormat="1"/>
-    <row r="31" s="2" customFormat="1"/>
-    <row r="32" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
-    <row r="45" s="2" customFormat="1"/>
-    <row r="46" s="2" customFormat="1"/>
-    <row r="47" s="2" customFormat="1"/>
-    <row r="48" s="2" customFormat="1"/>
-    <row r="49" s="2" customFormat="1"/>
-    <row r="50" s="2" customFormat="1"/>
-    <row r="51" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1"/>
-    <row r="53" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
-    <row r="55" s="2" customFormat="1"/>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="57" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="2" customFormat="1"/>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="2" customFormat="1"/>
-    <row r="65" s="2" customFormat="1"/>
-    <row r="66" s="2" customFormat="1"/>
-    <row r="67" s="2" customFormat="1"/>
-    <row r="68" s="2" customFormat="1"/>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="2" customFormat="1"/>
-    <row r="71" s="2" customFormat="1"/>
-    <row r="72" s="2" customFormat="1"/>
-    <row r="73" s="2" customFormat="1"/>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" s="2" customFormat="1"/>
-    <row r="76" s="2" customFormat="1"/>
-    <row r="77" s="2" customFormat="1"/>
-    <row r="78" s="2" customFormat="1"/>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1"/>
-    <row r="81" s="2" customFormat="1"/>
-    <row r="82" s="2" customFormat="1"/>
-    <row r="83" s="2" customFormat="1"/>
-    <row r="84" s="2" customFormat="1"/>
-    <row r="85" s="2" customFormat="1"/>
-    <row r="86" s="2" customFormat="1"/>
-    <row r="87" s="2" customFormat="1"/>
-    <row r="88" s="2" customFormat="1"/>
-    <row r="89" s="2" customFormat="1"/>
-    <row r="90" s="2" customFormat="1"/>
-    <row r="91" s="2" customFormat="1"/>
-    <row r="92" s="2" customFormat="1"/>
-    <row r="93" s="2" customFormat="1"/>
-    <row r="94" s="2" customFormat="1"/>
-    <row r="95" s="2" customFormat="1"/>
-    <row r="96" s="2" customFormat="1"/>
-    <row r="97" s="2" customFormat="1"/>
-    <row r="98" s="2" customFormat="1"/>
-    <row r="99" s="2" customFormat="1"/>
-    <row r="100" s="2" customFormat="1"/>
-    <row r="101" s="2" customFormat="1"/>
-    <row r="102" s="2" customFormat="1"/>
-    <row r="103" s="2" customFormat="1"/>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
+    <row r="14" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="8.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="6.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="12.8888888888889" customWidth="1"/>
-    <col min="16" max="16" width="14.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="7.77777777777778" customWidth="1"/>
-    <col min="18" max="18" width="13.7777777777778" customWidth="1"/>
-    <col min="19" max="19" width="12.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="16.8888888888889" customWidth="1"/>
-    <col min="21" max="21" width="8.33333333333333" customWidth="1"/>
-    <col min="22" max="22" width="12.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="13.6666666666667" customWidth="1"/>
-    <col min="24" max="24" width="13.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="9.11111111111111" customWidth="1"/>
-    <col min="30" max="30" width="14.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="15.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="7.55555555555556" customWidth="1"/>
-    <col min="33" max="33" width="11.2222222222222" customWidth="1"/>
-    <col min="34" max="34" width="14.6666666666667" customWidth="1"/>
-    <col min="35" max="35" width="15.7777777777778" customWidth="1"/>
-    <col min="36" max="36" width="12.6666666666667" customWidth="1"/>
-    <col min="37" max="37" width="13.2222222222222" customWidth="1"/>
+    <col min="28" max="28" width="12.44140625" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.21875" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" customWidth="1"/>
+    <col min="33" max="33" width="11.21875" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" customWidth="1"/>
     <col min="38" max="39" width="13" customWidth="1"/>
-    <col min="40" max="40" width="13.6666666666667" customWidth="1"/>
-    <col min="41" max="41" width="18.2222222222222" customWidth="1"/>
-    <col min="42" max="43" width="13.1111111111111" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" customWidth="1"/>
+    <col min="41" max="41" width="18.21875" customWidth="1"/>
+    <col min="42" max="43" width="13.109375" customWidth="1"/>
     <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.2222222222222" customWidth="1"/>
-    <col min="47" max="47" width="9.88888888888889" customWidth="1"/>
-    <col min="48" max="48" width="12.6666666666667" customWidth="1"/>
-    <col min="49" max="49" width="6.11111111111111" customWidth="1"/>
-    <col min="50" max="50" width="7.22222222222222" customWidth="1"/>
-    <col min="51" max="51" width="16.7777777777778" customWidth="1"/>
-    <col min="52" max="52" width="10.7777777777778" customWidth="1"/>
-    <col min="53" max="53" width="10.2222222222222" customWidth="1"/>
-    <col min="54" max="54" width="16.8888888888889" customWidth="1"/>
-    <col min="55" max="55" width="14.4444444444444" customWidth="1"/>
-    <col min="56" max="56" width="24.1111111111111" customWidth="1"/>
-    <col min="57" max="57" width="15.1111111111111" customWidth="1"/>
-    <col min="58" max="58" width="17.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="17.4444444444444" customWidth="1"/>
-    <col min="60" max="60" width="11.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="6.33333333333333" customWidth="1"/>
-    <col min="62" max="62" width="13.2222222222222" customWidth="1"/>
-    <col min="63" max="63" width="11.1111111111111" customWidth="1"/>
-    <col min="64" max="64" width="12.2222222222222" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="12.7777777777778" customWidth="1"/>
-    <col min="67" max="67" width="12.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="14.1111111111111" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="14.21875" customWidth="1"/>
+    <col min="47" max="47" width="9.88671875" customWidth="1"/>
+    <col min="48" max="48" width="12.6640625" customWidth="1"/>
+    <col min="49" max="49" width="6.109375" customWidth="1"/>
+    <col min="50" max="50" width="7.21875" customWidth="1"/>
+    <col min="51" max="51" width="16.77734375" customWidth="1"/>
+    <col min="52" max="52" width="10.77734375" customWidth="1"/>
+    <col min="53" max="53" width="10.21875" customWidth="1"/>
+    <col min="54" max="54" width="16.88671875" customWidth="1"/>
+    <col min="55" max="55" width="14.44140625" customWidth="1"/>
+    <col min="56" max="56" width="24.109375" customWidth="1"/>
+    <col min="57" max="57" width="15.109375" customWidth="1"/>
+    <col min="58" max="58" width="17.109375" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" customWidth="1"/>
+    <col min="60" max="60" width="11.77734375" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" customWidth="1"/>
+    <col min="62" max="62" width="13.21875" customWidth="1"/>
+    <col min="63" max="63" width="11.109375" customWidth="1"/>
+    <col min="64" max="64" width="12.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="12.77734375" customWidth="1"/>
+    <col min="67" max="67" width="12.88671875" customWidth="1"/>
+    <col min="68" max="68" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:68">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -5471,7 +4906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:68">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -5608,7 +5043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:68">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -5745,7 +5180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:68">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -5882,7 +5317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:68">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
@@ -6019,7 +5454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:68">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -6156,7 +5591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:68">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
@@ -6293,7 +5728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:68">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -6430,7 +5865,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:68">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -6567,7 +6002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:68">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -6704,7 +6139,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:68">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -6841,7 +6276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:68">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -6978,7 +6413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:68">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>197</v>
       </c>
@@ -7116,131 +6551,130 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="12.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="16.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="7.88888888888889" customWidth="1"/>
-    <col min="18" max="18" width="11.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="7.11111111111111" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="27.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="13.2222222222222" customWidth="1"/>
-    <col min="24" max="24" width="16.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="15.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="14.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="12.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="13.1111111111111" customWidth="1"/>
-    <col min="30" max="30" width="17.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="15.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="20.6666666666667" customWidth="1"/>
-    <col min="33" max="33" width="18.5555555555556" customWidth="1"/>
-    <col min="34" max="34" width="27.4444444444444" customWidth="1"/>
-    <col min="35" max="35" width="25.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="13.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="14.1111111111111" customWidth="1"/>
-    <col min="38" max="38" width="19.1111111111111" customWidth="1"/>
-    <col min="39" max="40" width="19.6666666666667" customWidth="1"/>
-    <col min="41" max="41" width="12.5555555555556" customWidth="1"/>
-    <col min="42" max="42" width="14.7777777777778" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="17.109375" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" customWidth="1"/>
+    <col min="33" max="33" width="18.5546875" customWidth="1"/>
+    <col min="34" max="34" width="27.44140625" customWidth="1"/>
+    <col min="35" max="35" width="25.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" customWidth="1"/>
+    <col min="38" max="38" width="19.109375" customWidth="1"/>
+    <col min="39" max="40" width="19.6640625" customWidth="1"/>
+    <col min="41" max="41" width="12.5546875" customWidth="1"/>
+    <col min="42" max="42" width="14.77734375" customWidth="1"/>
     <col min="43" max="43" width="17" customWidth="1"/>
-    <col min="44" max="44" width="8.33333333333333" customWidth="1"/>
-    <col min="45" max="45" width="22.2222222222222" customWidth="1"/>
-    <col min="46" max="46" width="23.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="13.4444444444444" customWidth="1"/>
-    <col min="48" max="48" width="10.6666666666667" customWidth="1"/>
+    <col min="44" max="44" width="8.33203125" customWidth="1"/>
+    <col min="45" max="45" width="22.21875" customWidth="1"/>
+    <col min="46" max="46" width="23.109375" customWidth="1"/>
+    <col min="47" max="47" width="13.44140625" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" customWidth="1"/>
     <col min="49" max="49" width="19" customWidth="1"/>
-    <col min="50" max="50" width="16.8888888888889" customWidth="1"/>
-    <col min="51" max="51" width="20.6666666666667" customWidth="1"/>
-    <col min="52" max="52" width="11.7777777777778" customWidth="1"/>
-    <col min="53" max="53" width="20.5555555555556" customWidth="1"/>
-    <col min="54" max="54" width="17.4444444444444" customWidth="1"/>
-    <col min="55" max="55" width="12.7777777777778" customWidth="1"/>
+    <col min="50" max="50" width="16.88671875" customWidth="1"/>
+    <col min="51" max="51" width="20.6640625" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" customWidth="1"/>
+    <col min="53" max="53" width="20.5546875" customWidth="1"/>
+    <col min="54" max="54" width="17.44140625" customWidth="1"/>
+    <col min="55" max="55" width="12.77734375" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="57" max="57" width="13.5555555555556" customWidth="1"/>
-    <col min="58" max="58" width="20.7777777777778" customWidth="1"/>
-    <col min="59" max="59" width="24.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="18.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="16.6666666666667" customWidth="1"/>
-    <col min="62" max="62" width="13.6666666666667" customWidth="1"/>
-    <col min="63" max="63" width="17.1111111111111" customWidth="1"/>
-    <col min="64" max="64" width="22.2222222222222" customWidth="1"/>
-    <col min="65" max="65" width="12.2222222222222" customWidth="1"/>
-    <col min="66" max="66" width="18.2222222222222" customWidth="1"/>
-    <col min="67" max="67" width="7.77777777777778" customWidth="1"/>
+    <col min="57" max="57" width="13.5546875" customWidth="1"/>
+    <col min="58" max="58" width="20.77734375" customWidth="1"/>
+    <col min="59" max="59" width="24.21875" customWidth="1"/>
+    <col min="60" max="60" width="18.21875" customWidth="1"/>
+    <col min="61" max="61" width="16.6640625" customWidth="1"/>
+    <col min="62" max="62" width="13.6640625" customWidth="1"/>
+    <col min="63" max="63" width="17.109375" customWidth="1"/>
+    <col min="64" max="64" width="22.21875" customWidth="1"/>
+    <col min="65" max="65" width="12.21875" customWidth="1"/>
+    <col min="66" max="66" width="18.21875" customWidth="1"/>
+    <col min="67" max="67" width="7.77734375" customWidth="1"/>
     <col min="68" max="68" width="13" customWidth="1"/>
-    <col min="69" max="70" width="19.1111111111111" customWidth="1"/>
-    <col min="71" max="71" width="18.4444444444444" customWidth="1"/>
-    <col min="72" max="72" width="13.4444444444444" customWidth="1"/>
-    <col min="73" max="73" width="22.1111111111111" customWidth="1"/>
-    <col min="74" max="74" width="16.4444444444444" customWidth="1"/>
-    <col min="75" max="75" width="21.8888888888889" customWidth="1"/>
-    <col min="76" max="76" width="11.2222222222222" customWidth="1"/>
-    <col min="77" max="77" width="14.5555555555556" customWidth="1"/>
-    <col min="78" max="78" width="18.2222222222222" customWidth="1"/>
-    <col min="79" max="79" width="13.2222222222222" customWidth="1"/>
-    <col min="80" max="80" width="17.2222222222222" customWidth="1"/>
-    <col min="81" max="81" width="20.1111111111111" customWidth="1"/>
-    <col min="82" max="82" width="17.6666666666667" customWidth="1"/>
-    <col min="83" max="83" width="16.8888888888889" customWidth="1"/>
-    <col min="84" max="84" width="21.7777777777778" customWidth="1"/>
-    <col min="85" max="85" width="19.7777777777778" customWidth="1"/>
-    <col min="86" max="86" width="13.5555555555556" customWidth="1"/>
-    <col min="87" max="87" width="23.5555555555556" customWidth="1"/>
+    <col min="69" max="70" width="19.109375" customWidth="1"/>
+    <col min="71" max="71" width="18.44140625" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" customWidth="1"/>
+    <col min="73" max="73" width="22.109375" customWidth="1"/>
+    <col min="74" max="74" width="16.44140625" customWidth="1"/>
+    <col min="75" max="75" width="21.88671875" customWidth="1"/>
+    <col min="76" max="76" width="11.21875" customWidth="1"/>
+    <col min="77" max="77" width="14.5546875" customWidth="1"/>
+    <col min="78" max="78" width="18.21875" customWidth="1"/>
+    <col min="79" max="79" width="13.21875" customWidth="1"/>
+    <col min="80" max="80" width="17.21875" customWidth="1"/>
+    <col min="81" max="81" width="20.109375" customWidth="1"/>
+    <col min="82" max="82" width="17.6640625" customWidth="1"/>
+    <col min="83" max="83" width="16.88671875" customWidth="1"/>
+    <col min="84" max="84" width="21.77734375" customWidth="1"/>
+    <col min="85" max="85" width="19.77734375" customWidth="1"/>
+    <col min="86" max="86" width="13.5546875" customWidth="1"/>
+    <col min="87" max="87" width="23.5546875" customWidth="1"/>
     <col min="88" max="88" width="19" customWidth="1"/>
-    <col min="89" max="89" width="23.6666666666667" customWidth="1"/>
-    <col min="90" max="90" width="25.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="17.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.8888888888889" customWidth="1"/>
-    <col min="93" max="93" width="23.5555555555556" customWidth="1"/>
-    <col min="94" max="94" width="22.6666666666667" customWidth="1"/>
+    <col min="89" max="89" width="23.6640625" customWidth="1"/>
+    <col min="90" max="90" width="25.77734375" customWidth="1"/>
+    <col min="91" max="91" width="17.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.88671875" customWidth="1"/>
+    <col min="93" max="93" width="23.5546875" customWidth="1"/>
+    <col min="94" max="94" width="22.6640625" customWidth="1"/>
     <col min="95" max="95" width="22" customWidth="1"/>
-    <col min="96" max="96" width="21.2222222222222" customWidth="1"/>
-    <col min="97" max="97" width="19.2222222222222" customWidth="1"/>
-    <col min="98" max="98" width="22.4444444444444" customWidth="1"/>
-    <col min="99" max="99" width="19.7777777777778" customWidth="1"/>
-    <col min="100" max="100" width="10.2222222222222" customWidth="1"/>
-    <col min="101" max="101" width="16.8888888888889" customWidth="1"/>
-    <col min="102" max="102" width="15.1111111111111" customWidth="1"/>
-    <col min="103" max="103" width="17.1111111111111" customWidth="1"/>
-    <col min="104" max="104" width="11.8888888888889" customWidth="1"/>
-    <col min="105" max="105" width="13.6666666666667" customWidth="1"/>
+    <col min="96" max="96" width="21.21875" customWidth="1"/>
+    <col min="97" max="97" width="19.21875" customWidth="1"/>
+    <col min="98" max="98" width="22.44140625" customWidth="1"/>
+    <col min="99" max="99" width="19.77734375" customWidth="1"/>
+    <col min="100" max="100" width="10.21875" customWidth="1"/>
+    <col min="101" max="101" width="16.88671875" customWidth="1"/>
+    <col min="102" max="102" width="15.109375" customWidth="1"/>
+    <col min="103" max="103" width="17.109375" customWidth="1"/>
+    <col min="104" max="104" width="11.88671875" customWidth="1"/>
+    <col min="105" max="105" width="13.6640625" customWidth="1"/>
     <col min="106" max="106" width="19" customWidth="1"/>
-    <col min="107" max="107" width="22.8888888888889" customWidth="1"/>
+    <col min="107" max="107" width="22.88671875" customWidth="1"/>
     <col min="108" max="108" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:108">
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7566,7 +7000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:108">
+    <row r="2" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -7720,8 +7154,8 @@
       <c r="BH2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>109</v>
+      <c r="BI2" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>119</v>
@@ -7826,7 +7260,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:108">
+    <row r="3" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -7980,8 +7414,8 @@
       <c r="BH3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI3" s="1" t="s">
-        <v>109</v>
+      <c r="BI3" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>119</v>
@@ -8086,7 +7520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:108">
+    <row r="4" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -8240,8 +7674,8 @@
       <c r="BH4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI4" s="1" t="s">
-        <v>109</v>
+      <c r="BI4" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>119</v>
@@ -8346,7 +7780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:108">
+    <row r="5" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -8500,8 +7934,8 @@
       <c r="BH5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI5" s="1" t="s">
-        <v>109</v>
+      <c r="BI5" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>119</v>
@@ -8606,7 +8040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:108">
+    <row r="6" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -8760,8 +8194,8 @@
       <c r="BH6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI6" s="1" t="s">
-        <v>109</v>
+      <c r="BI6" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ6" s="1" t="s">
         <v>119</v>
@@ -8866,7 +8300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:108">
+    <row r="7" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -9020,8 +8454,8 @@
       <c r="BH7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI7" s="1" t="s">
-        <v>109</v>
+      <c r="BI7" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ7" s="1" t="s">
         <v>119</v>
@@ -9126,7 +8560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:108">
+    <row r="8" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -9280,8 +8714,8 @@
       <c r="BH8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI8" s="1" t="s">
-        <v>109</v>
+      <c r="BI8" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ8" s="1" t="s">
         <v>119</v>
@@ -9386,7 +8820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:108">
+    <row r="9" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -9540,8 +8974,8 @@
       <c r="BH9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI9" s="1" t="s">
-        <v>109</v>
+      <c r="BI9" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ9" s="1" t="s">
         <v>119</v>
@@ -9646,7 +9080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:108">
+    <row r="10" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -9800,8 +9234,8 @@
       <c r="BH10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI10" s="1" t="s">
-        <v>109</v>
+      <c r="BI10" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ10" s="1" t="s">
         <v>119</v>
@@ -9906,7 +9340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:108">
+    <row r="11" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -10060,8 +9494,8 @@
       <c r="BH11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI11" s="1" t="s">
-        <v>109</v>
+      <c r="BI11" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ11" s="1" t="s">
         <v>119</v>
@@ -10166,7 +9600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:108">
+    <row r="12" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -10320,8 +9754,8 @@
       <c r="BH12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI12" s="1" t="s">
-        <v>109</v>
+      <c r="BI12" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ12" s="1" t="s">
         <v>119</v>
@@ -10426,7 +9860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:108">
+    <row r="13" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -10580,8 +10014,8 @@
       <c r="BH13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI13" s="1" t="s">
-        <v>109</v>
+      <c r="BI13" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>119</v>
@@ -10686,41 +10120,41 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1"/>
-    <row r="18" s="2" customFormat="1"/>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1"/>
-    <row r="23" s="2" customFormat="1"/>
-    <row r="24" s="2" customFormat="1"/>
-    <row r="25" s="2" customFormat="1"/>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" s="2" customFormat="1"/>
-    <row r="28" s="2" customFormat="1"/>
-    <row r="29" s="2" customFormat="1"/>
-    <row r="30" s="2" customFormat="1"/>
-    <row r="31" s="2" customFormat="1"/>
-    <row r="32" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
-    <row r="45" s="2" customFormat="1"/>
-    <row r="46" s="2" customFormat="1"/>
+    <row r="14" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深港/证券组合费/测试结果.xlsx
+++ b/用例数据/深港/证券组合费/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="unprocessedreckoningresult" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="221">
   <si>
     <t>ACCTID</t>
   </si>
@@ -679,6 +679,14 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRSTCASHSETTLEDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230227000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1057,119 +1065,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA130"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BF4" sqref="BF4"/>
+    <sheetView topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="CZ2" sqref="CZ2:CZ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="7.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="7.125" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.21875" customWidth="1"/>
-    <col min="22" max="22" width="27.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.21875" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="17.109375" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" customWidth="1"/>
-    <col min="33" max="33" width="18.5546875" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" customWidth="1"/>
-    <col min="35" max="35" width="25.109375" customWidth="1"/>
-    <col min="36" max="36" width="13.44140625" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="38" width="19.109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
+    <col min="28" max="28" width="12.625" customWidth="1"/>
+    <col min="29" max="29" width="13.125" customWidth="1"/>
+    <col min="30" max="30" width="17.125" customWidth="1"/>
+    <col min="31" max="31" width="15.75" customWidth="1"/>
+    <col min="32" max="32" width="20.625" customWidth="1"/>
+    <col min="33" max="33" width="18.5" customWidth="1"/>
+    <col min="34" max="34" width="27.5" customWidth="1"/>
+    <col min="35" max="35" width="25.125" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="37" width="14.125" customWidth="1"/>
+    <col min="38" max="38" width="19.125" customWidth="1"/>
+    <col min="39" max="39" width="12.5" customWidth="1"/>
     <col min="40" max="40" width="17" customWidth="1"/>
-    <col min="41" max="41" width="8.33203125" customWidth="1"/>
-    <col min="42" max="42" width="22.21875" customWidth="1"/>
-    <col min="43" max="43" width="23.109375" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" customWidth="1"/>
+    <col min="41" max="41" width="8.375" customWidth="1"/>
+    <col min="42" max="42" width="22.25" customWidth="1"/>
+    <col min="43" max="43" width="23.125" customWidth="1"/>
+    <col min="44" max="44" width="13.5" customWidth="1"/>
+    <col min="45" max="45" width="10.625" customWidth="1"/>
     <col min="46" max="46" width="19" customWidth="1"/>
-    <col min="47" max="47" width="16.88671875" customWidth="1"/>
-    <col min="48" max="48" width="20.6640625" customWidth="1"/>
-    <col min="49" max="49" width="11.77734375" customWidth="1"/>
-    <col min="50" max="50" width="20.5546875" customWidth="1"/>
-    <col min="51" max="51" width="17.44140625" customWidth="1"/>
-    <col min="52" max="52" width="12.77734375" customWidth="1"/>
+    <col min="47" max="47" width="16.875" customWidth="1"/>
+    <col min="48" max="48" width="20.625" customWidth="1"/>
+    <col min="49" max="49" width="11.75" customWidth="1"/>
+    <col min="50" max="50" width="20.5" customWidth="1"/>
+    <col min="51" max="51" width="17.5" customWidth="1"/>
+    <col min="52" max="52" width="12.75" customWidth="1"/>
     <col min="53" max="53" width="15" customWidth="1"/>
-    <col min="54" max="54" width="13.5546875" customWidth="1"/>
-    <col min="55" max="55" width="20.77734375" customWidth="1"/>
-    <col min="56" max="56" width="24.21875" customWidth="1"/>
-    <col min="57" max="57" width="18.21875" customWidth="1"/>
-    <col min="58" max="58" width="16.6640625" customWidth="1"/>
-    <col min="59" max="59" width="13.6640625" customWidth="1"/>
-    <col min="60" max="60" width="17.109375" customWidth="1"/>
-    <col min="61" max="61" width="22.21875" customWidth="1"/>
-    <col min="62" max="62" width="12.21875" customWidth="1"/>
-    <col min="63" max="63" width="18.21875" customWidth="1"/>
-    <col min="64" max="64" width="7.77734375" customWidth="1"/>
+    <col min="54" max="54" width="13.5" customWidth="1"/>
+    <col min="55" max="55" width="20.75" customWidth="1"/>
+    <col min="56" max="56" width="24.25" customWidth="1"/>
+    <col min="57" max="57" width="18.25" customWidth="1"/>
+    <col min="58" max="58" width="16.625" customWidth="1"/>
+    <col min="59" max="59" width="13.625" customWidth="1"/>
+    <col min="60" max="60" width="17.125" customWidth="1"/>
+    <col min="61" max="61" width="22.25" customWidth="1"/>
+    <col min="62" max="62" width="12.25" customWidth="1"/>
+    <col min="63" max="63" width="18.25" customWidth="1"/>
+    <col min="64" max="64" width="7.75" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="67" width="19.109375" customWidth="1"/>
-    <col min="68" max="68" width="18.44140625" customWidth="1"/>
-    <col min="69" max="69" width="13.44140625" customWidth="1"/>
-    <col min="70" max="70" width="22.109375" customWidth="1"/>
-    <col min="71" max="71" width="16.44140625" customWidth="1"/>
-    <col min="72" max="72" width="21.88671875" customWidth="1"/>
-    <col min="73" max="73" width="11.21875" customWidth="1"/>
-    <col min="74" max="74" width="14.5546875" customWidth="1"/>
-    <col min="75" max="75" width="18.21875" customWidth="1"/>
-    <col min="76" max="76" width="13.21875" customWidth="1"/>
-    <col min="77" max="77" width="17.21875" customWidth="1"/>
-    <col min="78" max="78" width="20.109375" customWidth="1"/>
-    <col min="79" max="79" width="17.6640625" customWidth="1"/>
-    <col min="80" max="80" width="16.88671875" customWidth="1"/>
-    <col min="81" max="81" width="21.77734375" customWidth="1"/>
-    <col min="82" max="82" width="19.77734375" customWidth="1"/>
-    <col min="83" max="83" width="13.5546875" customWidth="1"/>
-    <col min="84" max="84" width="23.5546875" customWidth="1"/>
+    <col min="66" max="67" width="19.125" customWidth="1"/>
+    <col min="68" max="68" width="18.5" customWidth="1"/>
+    <col min="69" max="69" width="13.5" customWidth="1"/>
+    <col min="70" max="70" width="22.125" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="21.875" customWidth="1"/>
+    <col min="73" max="73" width="11.25" customWidth="1"/>
+    <col min="74" max="74" width="14.5" customWidth="1"/>
+    <col min="75" max="75" width="18.25" customWidth="1"/>
+    <col min="76" max="76" width="13.25" customWidth="1"/>
+    <col min="77" max="77" width="17.25" customWidth="1"/>
+    <col min="78" max="78" width="20.125" customWidth="1"/>
+    <col min="79" max="79" width="17.625" customWidth="1"/>
+    <col min="80" max="80" width="16.875" customWidth="1"/>
+    <col min="81" max="81" width="21.75" customWidth="1"/>
+    <col min="82" max="82" width="19.75" customWidth="1"/>
+    <col min="83" max="83" width="13.5" customWidth="1"/>
+    <col min="84" max="84" width="23.5" customWidth="1"/>
     <col min="85" max="85" width="19" customWidth="1"/>
-    <col min="86" max="86" width="23.6640625" customWidth="1"/>
-    <col min="87" max="87" width="25.77734375" customWidth="1"/>
-    <col min="88" max="88" width="17.88671875" customWidth="1"/>
-    <col min="89" max="89" width="19.88671875" customWidth="1"/>
-    <col min="90" max="90" width="23.5546875" customWidth="1"/>
-    <col min="91" max="91" width="22.6640625" customWidth="1"/>
+    <col min="86" max="86" width="23.625" customWidth="1"/>
+    <col min="87" max="87" width="25.75" customWidth="1"/>
+    <col min="88" max="88" width="17.875" customWidth="1"/>
+    <col min="89" max="89" width="19.875" customWidth="1"/>
+    <col min="90" max="90" width="23.5" customWidth="1"/>
+    <col min="91" max="91" width="22.625" customWidth="1"/>
     <col min="92" max="92" width="22" customWidth="1"/>
-    <col min="93" max="93" width="21.21875" customWidth="1"/>
-    <col min="94" max="94" width="19.21875" customWidth="1"/>
-    <col min="95" max="95" width="22.44140625" customWidth="1"/>
-    <col min="96" max="96" width="19.77734375" customWidth="1"/>
-    <col min="97" max="97" width="10.21875" customWidth="1"/>
-    <col min="98" max="98" width="16.88671875" customWidth="1"/>
-    <col min="99" max="99" width="15.109375" customWidth="1"/>
-    <col min="100" max="100" width="17.109375" customWidth="1"/>
-    <col min="101" max="101" width="11.88671875" customWidth="1"/>
-    <col min="102" max="102" width="13.6640625" customWidth="1"/>
+    <col min="93" max="93" width="21.25" customWidth="1"/>
+    <col min="94" max="94" width="19.25" customWidth="1"/>
+    <col min="95" max="95" width="22.5" customWidth="1"/>
+    <col min="96" max="96" width="19.75" customWidth="1"/>
+    <col min="97" max="97" width="10.25" customWidth="1"/>
+    <col min="98" max="98" width="16.875" customWidth="1"/>
+    <col min="99" max="99" width="15.125" customWidth="1"/>
+    <col min="100" max="100" width="17.125" customWidth="1"/>
+    <col min="101" max="101" width="11.875" customWidth="1"/>
+    <col min="102" max="102" width="13.625" customWidth="1"/>
     <col min="103" max="103" width="19" customWidth="1"/>
-    <col min="104" max="104" width="22.88671875" customWidth="1"/>
+    <col min="104" max="104" width="22.875" customWidth="1"/>
     <col min="105" max="105" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,13 +1488,13 @@
         <v>102</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="DA1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1731,13 +1739,13 @@
         <v>109</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -1982,13 +1990,13 @@
         <v>109</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -2233,13 +2241,13 @@
         <v>109</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA4" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -2484,13 +2492,13 @@
         <v>109</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA5" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -2735,13 +2743,13 @@
         <v>109</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -2986,13 +2994,13 @@
         <v>109</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -3237,13 +3245,13 @@
         <v>109</v>
       </c>
       <c r="CZ8" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -3488,13 +3496,13 @@
         <v>109</v>
       </c>
       <c r="CZ9" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -3739,13 +3747,13 @@
         <v>109</v>
       </c>
       <c r="CZ10" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -3990,13 +3998,13 @@
         <v>109</v>
       </c>
       <c r="CZ11" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA11" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -4241,13 +4249,13 @@
         <v>109</v>
       </c>
       <c r="CZ12" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -4492,133 +4500,133 @@
         <v>109</v>
       </c>
       <c r="CZ13" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DA13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4630,77 +4638,77 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="16.875" customWidth="1"/>
+    <col min="21" max="21" width="8.375" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="13.625" customWidth="1"/>
+    <col min="24" max="24" width="13.5" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" customWidth="1"/>
-    <col min="30" max="30" width="14.21875" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" customWidth="1"/>
-    <col min="33" max="33" width="11.21875" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" customWidth="1"/>
-    <col min="35" max="35" width="15.77734375" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
+    <col min="28" max="28" width="12.5" customWidth="1"/>
+    <col min="29" max="29" width="9.125" customWidth="1"/>
+    <col min="30" max="30" width="14.25" customWidth="1"/>
+    <col min="31" max="31" width="15.75" customWidth="1"/>
+    <col min="32" max="32" width="7.5" customWidth="1"/>
+    <col min="33" max="33" width="11.25" customWidth="1"/>
+    <col min="34" max="34" width="14.625" customWidth="1"/>
+    <col min="35" max="35" width="15.75" customWidth="1"/>
+    <col min="36" max="36" width="12.625" customWidth="1"/>
+    <col min="37" max="37" width="13.25" customWidth="1"/>
     <col min="38" max="39" width="13" customWidth="1"/>
-    <col min="40" max="40" width="13.6640625" customWidth="1"/>
-    <col min="41" max="41" width="18.21875" customWidth="1"/>
-    <col min="42" max="43" width="13.109375" customWidth="1"/>
+    <col min="40" max="40" width="13.625" customWidth="1"/>
+    <col min="41" max="41" width="18.25" customWidth="1"/>
+    <col min="42" max="43" width="13.125" customWidth="1"/>
     <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="14.21875" customWidth="1"/>
-    <col min="47" max="47" width="9.88671875" customWidth="1"/>
-    <col min="48" max="48" width="12.6640625" customWidth="1"/>
-    <col min="49" max="49" width="6.109375" customWidth="1"/>
-    <col min="50" max="50" width="7.21875" customWidth="1"/>
-    <col min="51" max="51" width="16.77734375" customWidth="1"/>
-    <col min="52" max="52" width="10.77734375" customWidth="1"/>
-    <col min="53" max="53" width="10.21875" customWidth="1"/>
-    <col min="54" max="54" width="16.88671875" customWidth="1"/>
-    <col min="55" max="55" width="14.44140625" customWidth="1"/>
-    <col min="56" max="56" width="24.109375" customWidth="1"/>
-    <col min="57" max="57" width="15.109375" customWidth="1"/>
-    <col min="58" max="58" width="17.109375" customWidth="1"/>
-    <col min="59" max="59" width="17.44140625" customWidth="1"/>
-    <col min="60" max="60" width="11.77734375" customWidth="1"/>
-    <col min="61" max="61" width="6.33203125" customWidth="1"/>
-    <col min="62" max="62" width="13.21875" customWidth="1"/>
-    <col min="63" max="63" width="11.109375" customWidth="1"/>
-    <col min="64" max="64" width="12.21875" customWidth="1"/>
-    <col min="65" max="65" width="14.109375" customWidth="1"/>
-    <col min="66" max="66" width="12.77734375" customWidth="1"/>
-    <col min="67" max="67" width="12.88671875" customWidth="1"/>
-    <col min="68" max="68" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="14.25" customWidth="1"/>
+    <col min="47" max="47" width="9.875" customWidth="1"/>
+    <col min="48" max="48" width="12.625" customWidth="1"/>
+    <col min="49" max="49" width="6.125" customWidth="1"/>
+    <col min="50" max="50" width="7.25" customWidth="1"/>
+    <col min="51" max="51" width="16.75" customWidth="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1"/>
+    <col min="53" max="53" width="10.25" customWidth="1"/>
+    <col min="54" max="54" width="16.875" customWidth="1"/>
+    <col min="55" max="55" width="14.5" customWidth="1"/>
+    <col min="56" max="56" width="24.125" customWidth="1"/>
+    <col min="57" max="57" width="15.125" customWidth="1"/>
+    <col min="58" max="58" width="17.125" customWidth="1"/>
+    <col min="59" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="11.75" customWidth="1"/>
+    <col min="61" max="61" width="6.375" customWidth="1"/>
+    <col min="62" max="62" width="13.25" customWidth="1"/>
+    <col min="63" max="63" width="11.125" customWidth="1"/>
+    <col min="64" max="64" width="12.25" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="12.75" customWidth="1"/>
+    <col min="67" max="67" width="12.875" customWidth="1"/>
+    <col min="68" max="68" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -5043,7 +5051,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -5180,7 +5188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -5317,7 +5325,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -5591,7 +5599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
@@ -5728,7 +5736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -6276,7 +6284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -6413,7 +6421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>197</v>
       </c>
@@ -6560,121 +6568,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BH6" sqref="BH6"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DC2" sqref="DC2:DC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="7.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="7.125" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.21875" customWidth="1"/>
-    <col min="22" max="22" width="27.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.21875" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="17.109375" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" customWidth="1"/>
-    <col min="33" max="33" width="18.5546875" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" customWidth="1"/>
-    <col min="35" max="35" width="25.109375" customWidth="1"/>
-    <col min="36" max="36" width="13.44140625" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="38" width="19.109375" customWidth="1"/>
-    <col min="39" max="40" width="19.6640625" customWidth="1"/>
-    <col min="41" max="41" width="12.5546875" customWidth="1"/>
-    <col min="42" max="42" width="14.77734375" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
+    <col min="28" max="28" width="12.625" customWidth="1"/>
+    <col min="29" max="29" width="13.125" customWidth="1"/>
+    <col min="30" max="30" width="17.125" customWidth="1"/>
+    <col min="31" max="31" width="15.75" customWidth="1"/>
+    <col min="32" max="32" width="20.625" customWidth="1"/>
+    <col min="33" max="33" width="18.5" customWidth="1"/>
+    <col min="34" max="34" width="27.5" customWidth="1"/>
+    <col min="35" max="35" width="25.125" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="37" width="14.125" customWidth="1"/>
+    <col min="38" max="38" width="19.125" customWidth="1"/>
+    <col min="39" max="40" width="19.625" customWidth="1"/>
+    <col min="41" max="41" width="12.5" customWidth="1"/>
+    <col min="42" max="42" width="14.75" customWidth="1"/>
     <col min="43" max="43" width="17" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" customWidth="1"/>
-    <col min="45" max="45" width="22.21875" customWidth="1"/>
-    <col min="46" max="46" width="23.109375" customWidth="1"/>
-    <col min="47" max="47" width="13.44140625" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" customWidth="1"/>
+    <col min="44" max="44" width="8.375" customWidth="1"/>
+    <col min="45" max="45" width="22.25" customWidth="1"/>
+    <col min="46" max="46" width="23.125" customWidth="1"/>
+    <col min="47" max="47" width="13.5" customWidth="1"/>
+    <col min="48" max="48" width="10.625" customWidth="1"/>
     <col min="49" max="49" width="19" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" customWidth="1"/>
-    <col min="51" max="51" width="20.6640625" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" customWidth="1"/>
-    <col min="53" max="53" width="20.5546875" customWidth="1"/>
-    <col min="54" max="54" width="17.44140625" customWidth="1"/>
-    <col min="55" max="55" width="12.77734375" customWidth="1"/>
+    <col min="50" max="50" width="16.875" customWidth="1"/>
+    <col min="51" max="51" width="20.625" customWidth="1"/>
+    <col min="52" max="52" width="11.75" customWidth="1"/>
+    <col min="53" max="53" width="20.5" customWidth="1"/>
+    <col min="54" max="54" width="17.5" customWidth="1"/>
+    <col min="55" max="55" width="12.75" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="57" max="57" width="13.5546875" customWidth="1"/>
-    <col min="58" max="58" width="20.77734375" customWidth="1"/>
-    <col min="59" max="59" width="24.21875" customWidth="1"/>
-    <col min="60" max="60" width="18.21875" customWidth="1"/>
-    <col min="61" max="61" width="16.6640625" customWidth="1"/>
-    <col min="62" max="62" width="13.6640625" customWidth="1"/>
-    <col min="63" max="63" width="17.109375" customWidth="1"/>
-    <col min="64" max="64" width="22.21875" customWidth="1"/>
-    <col min="65" max="65" width="12.21875" customWidth="1"/>
-    <col min="66" max="66" width="18.21875" customWidth="1"/>
-    <col min="67" max="67" width="7.77734375" customWidth="1"/>
+    <col min="57" max="57" width="13.5" customWidth="1"/>
+    <col min="58" max="58" width="20.75" customWidth="1"/>
+    <col min="59" max="59" width="24.25" customWidth="1"/>
+    <col min="60" max="60" width="18.25" customWidth="1"/>
+    <col min="61" max="61" width="16.625" customWidth="1"/>
+    <col min="62" max="62" width="13.625" customWidth="1"/>
+    <col min="63" max="63" width="17.125" customWidth="1"/>
+    <col min="64" max="64" width="22.25" customWidth="1"/>
+    <col min="65" max="65" width="12.25" customWidth="1"/>
+    <col min="66" max="66" width="18.25" customWidth="1"/>
+    <col min="67" max="67" width="7.75" customWidth="1"/>
     <col min="68" max="68" width="13" customWidth="1"/>
-    <col min="69" max="70" width="19.109375" customWidth="1"/>
-    <col min="71" max="71" width="18.44140625" customWidth="1"/>
-    <col min="72" max="72" width="13.44140625" customWidth="1"/>
-    <col min="73" max="73" width="22.109375" customWidth="1"/>
-    <col min="74" max="74" width="16.44140625" customWidth="1"/>
-    <col min="75" max="75" width="21.88671875" customWidth="1"/>
-    <col min="76" max="76" width="11.21875" customWidth="1"/>
-    <col min="77" max="77" width="14.5546875" customWidth="1"/>
-    <col min="78" max="78" width="18.21875" customWidth="1"/>
-    <col min="79" max="79" width="13.21875" customWidth="1"/>
-    <col min="80" max="80" width="17.21875" customWidth="1"/>
-    <col min="81" max="81" width="20.109375" customWidth="1"/>
-    <col min="82" max="82" width="17.6640625" customWidth="1"/>
-    <col min="83" max="83" width="16.88671875" customWidth="1"/>
-    <col min="84" max="84" width="21.77734375" customWidth="1"/>
-    <col min="85" max="85" width="19.77734375" customWidth="1"/>
-    <col min="86" max="86" width="13.5546875" customWidth="1"/>
-    <col min="87" max="87" width="23.5546875" customWidth="1"/>
+    <col min="69" max="70" width="19.125" customWidth="1"/>
+    <col min="71" max="71" width="18.5" customWidth="1"/>
+    <col min="72" max="72" width="13.5" customWidth="1"/>
+    <col min="73" max="73" width="22.125" customWidth="1"/>
+    <col min="74" max="74" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="21.875" customWidth="1"/>
+    <col min="76" max="76" width="11.25" customWidth="1"/>
+    <col min="77" max="77" width="14.5" customWidth="1"/>
+    <col min="78" max="78" width="18.25" customWidth="1"/>
+    <col min="79" max="79" width="13.25" customWidth="1"/>
+    <col min="80" max="80" width="17.25" customWidth="1"/>
+    <col min="81" max="81" width="20.125" customWidth="1"/>
+    <col min="82" max="82" width="17.625" customWidth="1"/>
+    <col min="83" max="83" width="16.875" customWidth="1"/>
+    <col min="84" max="84" width="21.75" customWidth="1"/>
+    <col min="85" max="85" width="19.75" customWidth="1"/>
+    <col min="86" max="86" width="13.5" customWidth="1"/>
+    <col min="87" max="87" width="23.5" customWidth="1"/>
     <col min="88" max="88" width="19" customWidth="1"/>
-    <col min="89" max="89" width="23.6640625" customWidth="1"/>
-    <col min="90" max="90" width="25.77734375" customWidth="1"/>
-    <col min="91" max="91" width="17.88671875" customWidth="1"/>
-    <col min="92" max="92" width="19.88671875" customWidth="1"/>
-    <col min="93" max="93" width="23.5546875" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" customWidth="1"/>
+    <col min="89" max="89" width="23.625" customWidth="1"/>
+    <col min="90" max="90" width="25.75" customWidth="1"/>
+    <col min="91" max="91" width="17.875" customWidth="1"/>
+    <col min="92" max="92" width="19.875" customWidth="1"/>
+    <col min="93" max="93" width="23.5" customWidth="1"/>
+    <col min="94" max="94" width="22.625" customWidth="1"/>
     <col min="95" max="95" width="22" customWidth="1"/>
-    <col min="96" max="96" width="21.21875" customWidth="1"/>
-    <col min="97" max="97" width="19.21875" customWidth="1"/>
-    <col min="98" max="98" width="22.44140625" customWidth="1"/>
-    <col min="99" max="99" width="19.77734375" customWidth="1"/>
-    <col min="100" max="100" width="10.21875" customWidth="1"/>
-    <col min="101" max="101" width="16.88671875" customWidth="1"/>
-    <col min="102" max="102" width="15.109375" customWidth="1"/>
-    <col min="103" max="103" width="17.109375" customWidth="1"/>
-    <col min="104" max="104" width="11.88671875" customWidth="1"/>
-    <col min="105" max="105" width="13.6640625" customWidth="1"/>
+    <col min="96" max="96" width="21.25" customWidth="1"/>
+    <col min="97" max="97" width="19.25" customWidth="1"/>
+    <col min="98" max="98" width="22.5" customWidth="1"/>
+    <col min="99" max="99" width="19.75" customWidth="1"/>
+    <col min="100" max="100" width="10.25" customWidth="1"/>
+    <col min="101" max="101" width="16.875" customWidth="1"/>
+    <col min="102" max="102" width="15.125" customWidth="1"/>
+    <col min="103" max="103" width="17.125" customWidth="1"/>
+    <col min="104" max="104" width="11.875" customWidth="1"/>
+    <col min="105" max="105" width="13.625" customWidth="1"/>
     <col min="106" max="106" width="19" customWidth="1"/>
-    <col min="107" max="107" width="22.88671875" customWidth="1"/>
+    <col min="107" max="107" width="22.875" customWidth="1"/>
     <col min="108" max="108" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -7254,13 +7262,13 @@
         <v>109</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -7514,13 +7522,13 @@
         <v>109</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -7774,13 +7782,13 @@
         <v>109</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD4" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -8034,13 +8042,13 @@
         <v>109</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD5" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -8294,13 +8302,13 @@
         <v>109</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -8554,13 +8562,13 @@
         <v>109</v>
       </c>
       <c r="DC7" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -8814,13 +8822,13 @@
         <v>109</v>
       </c>
       <c r="DC8" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -9074,13 +9082,13 @@
         <v>109</v>
       </c>
       <c r="DC9" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -9334,13 +9342,13 @@
         <v>109</v>
       </c>
       <c r="DC10" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -9594,13 +9602,13 @@
         <v>109</v>
       </c>
       <c r="DC11" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD11" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -9854,13 +9862,13 @@
         <v>109</v>
       </c>
       <c r="DC12" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -10114,45 +10122,45 @@
         <v>109</v>
       </c>
       <c r="DC13" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="DD13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
